--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_8.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31119.04684707139</v>
+        <v>-31119.04684707138</v>
       </c>
     </row>
     <row r="7">
@@ -26329,7 +26331,7 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H2" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="I2" t="n">
         <v>19400.90910273512</v>
@@ -26528,25 +26530,25 @@
         <v>-26352.25908647433</v>
       </c>
       <c r="E6" t="n">
-        <v>7275.340913525666</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="F6" t="n">
-        <v>7275.340913525666</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="G6" t="n">
         <v>7275.340913525666</v>
       </c>
       <c r="H6" t="n">
-        <v>7275.340913525666</v>
+        <v>7275.340913525662</v>
       </c>
       <c r="I6" t="n">
-        <v>7275.340913525666</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="J6" t="n">
         <v>7275.340913525666</v>
       </c>
       <c r="K6" t="n">
-        <v>7275.340913525666</v>
+        <v>7275.34091352567</v>
       </c>
       <c r="L6" t="n">
         <v>7275.340913525666</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_8.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31119.04684707138</v>
+        <v>-42717.89080894198</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19400.90910273512</v>
+        <v>19400.90910273511</v>
       </c>
       <c r="C2" t="n">
         <v>19400.90910273512</v>
@@ -26331,7 +26331,7 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H2" t="n">
-        <v>19400.90910273511</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="I2" t="n">
         <v>19400.90910273512</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-27738.57165301472</v>
       </c>
       <c r="C6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-27738.57165301471</v>
       </c>
       <c r="D6" t="n">
-        <v>-26352.25908647433</v>
+        <v>-27738.57165301471</v>
       </c>
       <c r="E6" t="n">
-        <v>7275.34091352567</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="F6" t="n">
-        <v>7275.34091352567</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="G6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="H6" t="n">
-        <v>7275.340913525662</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="I6" t="n">
-        <v>7275.34091352567</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="J6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="K6" t="n">
-        <v>7275.34091352567</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="L6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="M6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="N6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="O6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
       <c r="P6" t="n">
-        <v>7275.340913525666</v>
+        <v>5889.028346985286</v>
       </c>
     </row>
   </sheetData>
